--- a/static/AG_money/caldwell_consolidates_base/pac_contrib_aug_15_17_geo.xlsx
+++ b/static/AG_money/caldwell_consolidates_base/pac_contrib_aug_15_17_geo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandraglorioso/Desktop/AG_money/caldwell_consolidates_base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandraglorioso/Desktop/ag-money-news-app/repo/static/AG_money/caldwell_consolidates_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'pac_contrib_aug_15_17_geo.c (2)'!$A$1:$T$678</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pac_contrib_aug_15_17_geo.csv!$A$1:$Q$678</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -6327,7 +6327,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -6649,8 +6649,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="246">
     <cellStyle name="Comma" xfId="245" builtinId="3"/>
@@ -7347,11 +7347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:U684"/>
+  <dimension ref="A1:U678"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E66"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7485,7 +7484,7 @@
         <v>-81.787571</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>117</v>
       </c>
@@ -7538,7 +7537,7 @@
         <v>-80.174174500000007</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>59</v>
       </c>
@@ -7591,7 +7590,7 @@
         <v>-84.228917899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>151</v>
       </c>
@@ -7644,7 +7643,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>104</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>-82.473547999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>106</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>-81.8989835</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>99</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>-81.861392100000003</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>49</v>
       </c>
@@ -7968,7 +7967,7 @@
         <v>-80.280414699999994</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>-84.281704000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>129</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>-80.259469800000005</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>94</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>-80.071523200000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>34</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>-81.787570900000006</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>41</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>-80.289670000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>70</v>
       </c>
@@ -8280,7 +8279,7 @@
         <v>-81.791406199999997</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>93</v>
       </c>
@@ -8333,7 +8332,7 @@
         <v>-80.331167800000003</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>131</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>-83.870047</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>159</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>-82.398970599999998</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>69</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>-84.152540999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>91</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>-82.398009599999995</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>111</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>-81.858472899999995</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>112</v>
       </c>
@@ -8760,7 +8759,7 @@
         <v>-81.858472899999995</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>130</v>
       </c>
@@ -8807,7 +8806,7 @@
         <v>-84.262546099999994</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -8854,7 +8853,7 @@
         <v>-81.861392100000003</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>40</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>-80.292918</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>71</v>
       </c>
@@ -8945,7 +8944,7 @@
         <v>-81.349418299999996</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>120</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>-84.281045899999995</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>88</v>
       </c>
@@ -9095,7 +9094,7 @@
         <v>-82.3553146</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>127</v>
       </c>
@@ -9142,7 +9141,7 @@
         <v>-80.323729499999999</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>137</v>
       </c>
@@ -9189,7 +9188,7 @@
         <v>-80.323729499999999</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>156</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>58</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>79</v>
       </c>
@@ -9327,7 +9326,7 @@
         <v>-80.169638399999997</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>152</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>-80.262181999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>46</v>
       </c>
@@ -9421,7 +9420,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>-84.230900300000002</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>145</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>139</v>
       </c>
@@ -9562,7 +9561,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>78</v>
       </c>
@@ -9609,7 +9608,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>144</v>
       </c>
@@ -9656,7 +9655,7 @@
         <v>-84.281081900000004</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>55</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>-84.280293900000004</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>54</v>
       </c>
@@ -9750,7 +9749,7 @@
         <v>-84.250119999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>153</v>
       </c>
@@ -9797,7 +9796,7 @@
         <v>-81.9599999</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>28</v>
       </c>
@@ -9847,7 +9846,7 @@
         <v>-84.279262500000002</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>31</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>-80.0581897</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>77</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>-84.287306299999997</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>155</v>
       </c>
@@ -9994,7 +9993,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>147</v>
       </c>
@@ -10047,7 +10046,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>36</v>
       </c>
@@ -10100,7 +10099,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>148</v>
       </c>
@@ -10147,7 +10146,7 @@
         <v>-80.147593900000004</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>141</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>-80.147593900000004</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>154</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>103</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>-84.281045899999995</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>160</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>133</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>132</v>
       </c>
@@ -10509,7 +10508,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>138</v>
       </c>
@@ -10562,7 +10561,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>118</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>-84.281045899999995</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>47</v>
       </c>
@@ -11001,7 +11000,7 @@
         <v>-80.333561000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>85</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>-82.040499999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>89</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>-82.040500100000003</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>128</v>
       </c>
@@ -11142,7 +11141,7 @@
         <v>-80.231612900000002</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>25</v>
       </c>
@@ -11189,7 +11188,7 @@
         <v>-84.2583609</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>121</v>
       </c>
@@ -11236,7 +11235,7 @@
         <v>-91.118790000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>43</v>
       </c>
@@ -11280,7 +11279,7 @@
         <v>-80.049720199999996</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -11327,7 +11326,7 @@
         <v>-81.060369199999997</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>66</v>
       </c>
@@ -11374,7 +11373,7 @@
         <v>-84.3640422</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>27</v>
       </c>
@@ -11421,7 +11420,7 @@
         <v>-80.189804699999996</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>26</v>
       </c>
@@ -11468,7 +11467,7 @@
         <v>-80.175216199999994</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>96</v>
       </c>
@@ -11515,7 +11514,7 @@
         <v>-82.040500100000003</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>142</v>
       </c>
@@ -11562,7 +11561,7 @@
         <v>-81.6582887</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>136</v>
       </c>
@@ -11609,7 +11608,7 @@
         <v>-84.248997099999997</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>56</v>
       </c>
@@ -11656,7 +11655,7 @@
         <v>-84.184550400000006</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>53</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>-80.254788899999994</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>81</v>
       </c>
@@ -11909,7 +11908,7 @@
         <v>-84.281278</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>42</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>-82.459330899999998</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -12003,7 +12002,7 @@
         <v>-81.9376271</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>39</v>
       </c>
@@ -12050,7 +12049,7 @@
         <v>-81.373990699999993</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>83</v>
       </c>
@@ -12097,7 +12096,7 @@
         <v>-80.671597599999998</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>63</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>-84.280199300000007</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>150</v>
       </c>
@@ -12194,7 +12193,7 @@
         <v>-84.278694099999996</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>52</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>-82.323926299999997</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>116</v>
       </c>
@@ -12291,7 +12290,7 @@
         <v>-93.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>24</v>
       </c>
@@ -12341,7 +12340,7 @@
         <v>-93.454610000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>50</v>
       </c>
@@ -12388,7 +12387,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>124</v>
       </c>
@@ -12435,7 +12434,7 @@
         <v>-82.392823300000003</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>125</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>-84.225943999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>504</v>
       </c>
@@ -12526,7 +12525,7 @@
         <v>-82.3374788</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>75</v>
       </c>
@@ -12573,7 +12572,7 @@
         <v>-82.3374788</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>84</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>-82.468397699999997</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>37</v>
       </c>
@@ -12717,7 +12716,7 @@
         <v>-84.150544199999999</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>33</v>
       </c>
@@ -12770,7 +12769,7 @@
         <v>-84.304261999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>119</v>
       </c>
@@ -12867,7 +12866,7 @@
         <v>-82.468397699999997</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>57</v>
       </c>
@@ -12911,7 +12910,7 @@
         <v>-84.980794299999999</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>98</v>
       </c>
@@ -12958,7 +12957,7 @@
         <v>-81.772721000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>134</v>
       </c>
@@ -13008,7 +13007,7 @@
         <v>-81.432963999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>135</v>
       </c>
@@ -13055,7 +13054,7 @@
         <v>-98.395275999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>87</v>
       </c>
@@ -13108,7 +13107,7 @@
         <v>-82.105255700000001</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>149</v>
       </c>
@@ -13155,7 +13154,7 @@
         <v>-80.225353799999993</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>126</v>
       </c>
@@ -13202,7 +13201,7 @@
         <v>-80.225353799999993</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>110</v>
       </c>
@@ -13249,7 +13248,7 @@
         <v>-81.871055200000001</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>610</v>
       </c>
@@ -13296,7 +13295,7 @@
         <v>-81.957308699999999</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>114</v>
       </c>
@@ -13343,7 +13342,7 @@
         <v>-81.850447000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>68</v>
       </c>
@@ -13393,7 +13392,7 @@
         <v>-84.150544199999999</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>35</v>
       </c>
@@ -13440,7 +13439,7 @@
         <v>-84.373230000000007</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>90</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>-82.331907000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>105</v>
       </c>
@@ -13534,7 +13533,7 @@
         <v>-81.671571999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>143</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>-84.281045899999995</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>29</v>
       </c>
@@ -13640,7 +13639,7 @@
         <v>-84.281045899999995</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>60</v>
       </c>
@@ -13687,7 +13686,7 @@
         <v>-122.254835</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>67</v>
       </c>
@@ -13737,7 +13736,7 @@
         <v>-80.095160699999994</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>61</v>
       </c>
@@ -13790,7 +13789,7 @@
         <v>-82.373318400000002</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>86</v>
       </c>
@@ -13837,7 +13836,7 @@
         <v>-81.915577400000004</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>113</v>
       </c>
@@ -13890,7 +13889,7 @@
         <v>-81.617590800000002</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>62</v>
       </c>
@@ -13940,7 +13939,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>45</v>
       </c>
@@ -14096,7 +14095,7 @@
         <v>-84.281045899999995</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>146</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>48</v>
       </c>
@@ -14202,7 +14201,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>51</v>
       </c>
@@ -14249,7 +14248,7 @@
         <v>-87.871073999999993</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>140</v>
       </c>
@@ -14296,7 +14295,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>92</v>
       </c>
@@ -14346,7 +14345,7 @@
         <v>-80.058498200000002</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>22</v>
       </c>
@@ -14393,7 +14392,7 @@
         <v>-87.843306999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>23</v>
       </c>
@@ -14440,7 +14439,7 @@
         <v>-81.424640800000006</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>21</v>
       </c>
@@ -14487,7 +14486,7 @@
         <v>-84.150544199999999</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>19</v>
       </c>
@@ -14534,7 +14533,7 @@
         <v>-80.104748599999994</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>20</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>-80.104748599999994</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>337</v>
       </c>
@@ -14625,7 +14624,7 @@
         <v>-84.281081900000004</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>18</v>
       </c>
@@ -14672,7 +14671,7 @@
         <v>-84.281377000000006</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>17</v>
       </c>
@@ -14719,7 +14718,7 @@
         <v>-81.858472899999995</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>16</v>
       </c>
@@ -14766,7 +14765,7 @@
         <v>-80.147789299999999</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>15</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>-80.0581897</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>414</v>
       </c>
@@ -14857,7 +14856,7 @@
         <v>-80.332889499999993</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>529</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>-80.1208733</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>251</v>
       </c>
@@ -14945,7 +14944,7 @@
         <v>-80.500581499999996</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>14</v>
       </c>
@@ -14995,7 +14994,7 @@
         <v>-84.279262500000002</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>13</v>
       </c>
@@ -15042,7 +15041,7 @@
         <v>-82.459330899999998</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>445</v>
       </c>
@@ -15086,7 +15085,7 @@
         <v>-81.671571999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>617</v>
       </c>
@@ -15130,7 +15129,7 @@
         <v>-96.777625999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>10</v>
       </c>
@@ -15177,7 +15176,7 @@
         <v>-80.412814499999996</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>12</v>
       </c>
@@ -15224,7 +15223,7 @@
         <v>-80.411601599999997</v>
       </c>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>6</v>
       </c>
@@ -15271,7 +15270,7 @@
         <v>-80.334128699999994</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>3</v>
       </c>
@@ -15318,7 +15317,7 @@
         <v>-80.627313000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>7</v>
       </c>
@@ -15365,7 +15364,7 @@
         <v>-74.144304899999995</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>9</v>
       </c>
@@ -15412,7 +15411,7 @@
         <v>-84.284048999999996</v>
       </c>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>-80.278963399999995</v>
       </c>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>11</v>
       </c>
@@ -15506,7 +15505,7 @@
         <v>-80.2767616</v>
       </c>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>8</v>
       </c>
@@ -15553,7 +15552,7 @@
         <v>-80.057604299999994</v>
       </c>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>5</v>
       </c>
@@ -15600,7 +15599,7 @@
         <v>-80.289582899999999</v>
       </c>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>411</v>
       </c>
@@ -15647,7 +15646,7 @@
         <v>-81.374059399999993</v>
       </c>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2</v>
       </c>
@@ -15694,7 +15693,7 @@
         <v>-81.914769000000007</v>
       </c>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>514</v>
       </c>
@@ -15738,7 +15737,7 @@
         <v>-93.267608999999993</v>
       </c>
     </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>278</v>
       </c>
@@ -15782,7 +15781,7 @@
         <v>-118.26114200000001</v>
       </c>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>530</v>
       </c>
@@ -15826,7 +15825,7 @@
         <v>-82.5536587</v>
       </c>
     </row>
-    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>374</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>-84.236182200000002</v>
       </c>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1</v>
       </c>
@@ -15917,7 +15916,7 @@
         <v>-81.858472899999995</v>
       </c>
     </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0</v>
       </c>
@@ -15964,7 +15963,7 @@
         <v>-84.150544199999999</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>570</v>
       </c>
@@ -16008,7 +16007,7 @@
         <v>-82.288160000000005</v>
       </c>
     </row>
-    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>205</v>
       </c>
@@ -16052,7 +16051,7 @@
         <v>-84.280917500000001</v>
       </c>
     </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>623</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>-80.095104899999995</v>
       </c>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>323</v>
       </c>
@@ -16143,7 +16142,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>181</v>
       </c>
@@ -16187,7 +16186,7 @@
         <v>-81.377236800000006</v>
       </c>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>484</v>
       </c>
@@ -16231,7 +16230,7 @@
         <v>-80.1843827</v>
       </c>
     </row>
-    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>390</v>
       </c>
@@ -16275,7 +16274,7 @@
         <v>-81.8989835</v>
       </c>
     </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>402</v>
       </c>
@@ -16319,7 +16318,7 @@
         <v>-80.231612900000002</v>
       </c>
     </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>334</v>
       </c>
@@ -16363,7 +16362,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>669</v>
       </c>
@@ -16407,7 +16406,7 @@
         <v>-80.225353799999993</v>
       </c>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>544</v>
       </c>
@@ -16451,7 +16450,7 @@
         <v>-80.367631099999997</v>
       </c>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>385</v>
       </c>
@@ -16495,7 +16494,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>344</v>
       </c>
@@ -16539,7 +16538,7 @@
         <v>-84.280293900000004</v>
       </c>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>252</v>
       </c>
@@ -16583,7 +16582,7 @@
         <v>-80.454064000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>180</v>
       </c>
@@ -16627,7 +16626,7 @@
         <v>-90.222012000000007</v>
       </c>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>380</v>
       </c>
@@ -16671,7 +16670,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>161</v>
       </c>
@@ -16715,7 +16714,7 @@
         <v>-81.199865299999999</v>
       </c>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>352</v>
       </c>
@@ -16759,7 +16758,7 @@
         <v>-81.9599999</v>
       </c>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>443</v>
       </c>
@@ -16803,7 +16802,7 @@
         <v>-84.3640422</v>
       </c>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>482</v>
       </c>
@@ -16850,7 +16849,7 @@
         <v>-84.280199300000007</v>
       </c>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>412</v>
       </c>
@@ -16894,7 +16893,7 @@
         <v>-87.930571999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>666</v>
       </c>
@@ -16938,7 +16937,7 @@
         <v>-89.728633000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>470</v>
       </c>
@@ -16982,7 +16981,7 @@
         <v>-122.3863851</v>
       </c>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>364</v>
       </c>
@@ -17029,7 +17028,7 @@
         <v>-84.279262500000002</v>
       </c>
     </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>219</v>
       </c>
@@ -17073,7 +17072,7 @@
         <v>-81.957506899999998</v>
       </c>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>568</v>
       </c>
@@ -17117,7 +17116,7 @@
         <v>-80.095514800000004</v>
       </c>
     </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>250</v>
       </c>
@@ -17161,7 +17160,7 @@
         <v>-80.454064000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>404</v>
       </c>
@@ -17205,7 +17204,7 @@
         <v>-80.233149100000006</v>
       </c>
     </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>621</v>
       </c>
@@ -17249,7 +17248,7 @@
         <v>-122.488184</v>
       </c>
     </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>492</v>
       </c>
@@ -17296,7 +17295,7 @@
         <v>-93.454609899999994</v>
       </c>
     </row>
-    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>569</v>
       </c>
@@ -17340,7 +17339,7 @@
         <v>-82.544348799999995</v>
       </c>
     </row>
-    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>425</v>
       </c>
@@ -17384,7 +17383,7 @@
         <v>-82.533102</v>
       </c>
     </row>
-    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>236</v>
       </c>
@@ -17431,7 +17430,7 @@
         <v>-84.150544199999999</v>
       </c>
     </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>342</v>
       </c>
@@ -17475,7 +17474,7 @@
         <v>-84.150544199999999</v>
       </c>
     </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>658</v>
       </c>
@@ -17522,7 +17521,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>297</v>
       </c>
@@ -17566,7 +17565,7 @@
         <v>-82.435698099999996</v>
       </c>
     </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>277</v>
       </c>
@@ -17610,7 +17609,7 @@
         <v>-84.150544199999999</v>
       </c>
     </row>
-    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>284</v>
       </c>
@@ -17657,7 +17656,7 @@
         <v>-80.361037600000003</v>
       </c>
     </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>384</v>
       </c>
@@ -17701,7 +17700,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>638</v>
       </c>
@@ -17748,7 +17747,7 @@
         <v>-80.361037600000003</v>
       </c>
     </row>
-    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>548</v>
       </c>
@@ -17792,7 +17791,7 @@
         <v>-81.534229499999995</v>
       </c>
     </row>
-    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>628</v>
       </c>
@@ -17839,7 +17838,7 @@
         <v>-81.973880100000002</v>
       </c>
     </row>
-    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>299</v>
       </c>
@@ -17886,7 +17885,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>435</v>
       </c>
@@ -17930,7 +17929,7 @@
         <v>-81.973880100000002</v>
       </c>
     </row>
-    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>619</v>
       </c>
@@ -17974,7 +17973,7 @@
         <v>-84.281045899999995</v>
       </c>
     </row>
-    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>659</v>
       </c>
@@ -18018,7 +18017,7 @@
         <v>-87.868849999999995</v>
       </c>
     </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>563</v>
       </c>
@@ -18062,7 +18061,7 @@
         <v>-80.331911199999993</v>
       </c>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>641</v>
       </c>
@@ -18106,7 +18105,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>343</v>
       </c>
@@ -18150,7 +18149,7 @@
         <v>-84.150544199999999</v>
       </c>
     </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>369</v>
       </c>
@@ -18194,7 +18193,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>228</v>
       </c>
@@ -18238,7 +18237,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>580</v>
       </c>
@@ -18282,7 +18281,7 @@
         <v>-84.28</v>
       </c>
     </row>
-    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>579</v>
       </c>
@@ -18326,7 +18325,7 @@
         <v>-84.28</v>
       </c>
     </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>276</v>
       </c>
@@ -18370,7 +18369,7 @@
         <v>-84.150544199999999</v>
       </c>
     </row>
-    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>395</v>
       </c>
@@ -18414,7 +18413,7 @@
         <v>-82.642198800000003</v>
       </c>
     </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>516</v>
       </c>
@@ -18458,7 +18457,7 @@
         <v>-82.332679099999993</v>
       </c>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>243</v>
       </c>
@@ -18502,7 +18501,7 @@
         <v>-84.230900300000002</v>
       </c>
     </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>358</v>
       </c>
@@ -18549,7 +18548,7 @@
         <v>-84.279262500000002</v>
       </c>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>600</v>
       </c>
@@ -18593,7 +18592,7 @@
         <v>-84.36</v>
       </c>
     </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>576</v>
       </c>
@@ -18637,7 +18636,7 @@
         <v>149.5854923</v>
       </c>
     </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>230</v>
       </c>
@@ -18681,7 +18680,7 @@
         <v>-82.687510000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>466</v>
       </c>
@@ -18725,7 +18724,7 @@
         <v>-82.462664099999998</v>
       </c>
     </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>164</v>
       </c>
@@ -18769,7 +18768,7 @@
         <v>-84.279304300000007</v>
       </c>
     </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>640</v>
       </c>
@@ -18813,7 +18812,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>406</v>
       </c>
@@ -18857,7 +18856,7 @@
         <v>-84.2583609</v>
       </c>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>494</v>
       </c>
@@ -18901,7 +18900,7 @@
         <v>-84.2583609</v>
       </c>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>467</v>
       </c>
@@ -18945,7 +18944,7 @@
         <v>-82.459330899999998</v>
       </c>
     </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>287</v>
       </c>
@@ -18989,7 +18988,7 @@
         <v>-84.3640422</v>
       </c>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>477</v>
       </c>
@@ -19033,7 +19032,7 @@
         <v>-80.222527200000002</v>
       </c>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>643</v>
       </c>
@@ -19077,7 +19076,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>626</v>
       </c>
@@ -19121,7 +19120,7 @@
         <v>-83.314431999999996</v>
       </c>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>559</v>
       </c>
@@ -19165,7 +19164,7 @@
         <v>-80.141689400000004</v>
       </c>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>613</v>
       </c>
@@ -19209,7 +19208,7 @@
         <v>-81.777277400000003</v>
       </c>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>460</v>
       </c>
@@ -19253,7 +19252,7 @@
         <v>-84.281704000000005</v>
       </c>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>218</v>
       </c>
@@ -19297,7 +19296,7 @@
         <v>-118.25661100000001</v>
       </c>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>381</v>
       </c>
@@ -19341,7 +19340,7 @@
         <v>-84.320881</v>
       </c>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>531</v>
       </c>
@@ -19385,7 +19384,7 @@
         <v>-82.5536587</v>
       </c>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>240</v>
       </c>
@@ -19429,7 +19428,7 @@
         <v>-81.791033900000002</v>
       </c>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>201</v>
       </c>
@@ -19473,7 +19472,7 @@
         <v>-81.770143500000003</v>
       </c>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>227</v>
       </c>
@@ -19520,7 +19519,7 @@
         <v>-84.284048999999996</v>
       </c>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>363</v>
       </c>
@@ -19567,7 +19566,7 @@
         <v>-84.279262500000002</v>
       </c>
     </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>575</v>
       </c>
@@ -19614,7 +19613,7 @@
         <v>-84.270918899999998</v>
       </c>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>642</v>
       </c>
@@ -19658,7 +19657,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>420</v>
       </c>
@@ -19702,7 +19701,7 @@
         <v>-73.731487999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>169</v>
       </c>
@@ -19746,7 +19745,7 @@
         <v>-84.238633800000002</v>
       </c>
     </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>351</v>
       </c>
@@ -19790,7 +19789,7 @@
         <v>-81.9599999</v>
       </c>
     </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>583</v>
       </c>
@@ -19834,7 +19833,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>584</v>
       </c>
@@ -19878,7 +19877,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>589</v>
       </c>
@@ -19922,7 +19921,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>596</v>
       </c>
@@ -19966,7 +19965,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>302</v>
       </c>
@@ -20010,7 +20009,7 @@
         <v>-80.257292899999996</v>
       </c>
     </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>231</v>
       </c>
@@ -20054,7 +20053,7 @@
         <v>-82.687510000000003</v>
       </c>
     </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>627</v>
       </c>
@@ -20098,7 +20097,7 @@
         <v>-83.314431999999996</v>
       </c>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>603</v>
       </c>
@@ -20142,7 +20141,7 @@
         <v>-81.441535799999997</v>
       </c>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>418</v>
       </c>
@@ -20189,7 +20188,7 @@
         <v>-80.049720199999996</v>
       </c>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>383</v>
       </c>
@@ -20233,7 +20232,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>537</v>
       </c>
@@ -20277,7 +20276,7 @@
         <v>-114.18152000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>645</v>
       </c>
@@ -20321,7 +20320,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>549</v>
       </c>
@@ -20365,7 +20364,7 @@
         <v>-81.534229499999995</v>
       </c>
     </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>368</v>
       </c>
@@ -20409,7 +20408,7 @@
         <v>-84.280050099999997</v>
       </c>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>367</v>
       </c>
@@ -20456,7 +20455,7 @@
         <v>-84.280050099999997</v>
       </c>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>629</v>
       </c>
@@ -20500,7 +20499,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>333</v>
       </c>
@@ -20544,7 +20543,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>341</v>
       </c>
@@ -20588,7 +20587,7 @@
         <v>-81.4688345</v>
       </c>
     </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>532</v>
       </c>
@@ -20632,7 +20631,7 @@
         <v>-82.736726500000003</v>
       </c>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>174</v>
       </c>
@@ -20676,7 +20675,7 @@
         <v>-81.792149199999997</v>
       </c>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>285</v>
       </c>
@@ -20720,7 +20719,7 @@
         <v>-80.361037600000003</v>
       </c>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>578</v>
       </c>
@@ -20764,7 +20763,7 @@
         <v>149.5854923</v>
       </c>
     </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>408</v>
       </c>
@@ -20808,7 +20807,7 @@
         <v>-84.2583609</v>
       </c>
     </row>
-    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>495</v>
       </c>
@@ -20852,7 +20851,7 @@
         <v>-84.2583609</v>
       </c>
     </row>
-    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>630</v>
       </c>
@@ -20896,7 +20895,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>407</v>
       </c>
@@ -20943,7 +20942,7 @@
         <v>-84.2583609</v>
       </c>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>558</v>
       </c>
@@ -20987,7 +20986,7 @@
         <v>-80.141689400000004</v>
       </c>
     </row>
-    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>348</v>
       </c>
@@ -21034,7 +21033,7 @@
         <v>-84.279262500000002</v>
       </c>
     </row>
-    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>241</v>
       </c>
@@ -21078,7 +21077,7 @@
         <v>-81.791033900000002</v>
       </c>
     </row>
-    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>200</v>
       </c>
@@ -21122,7 +21121,7 @@
         <v>-81.770143500000003</v>
       </c>
     </row>
-    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>295</v>
       </c>
@@ -21166,7 +21165,7 @@
         <v>-82.435698099999996</v>
       </c>
     </row>
-    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>293</v>
       </c>
@@ -21213,7 +21212,7 @@
         <v>-82.435698099999996</v>
       </c>
     </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>564</v>
       </c>
@@ -21257,7 +21256,7 @@
         <v>-80.331911199999993</v>
       </c>
     </row>
-    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>553</v>
       </c>
@@ -21301,7 +21300,7 @@
         <v>-80.188085999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>357</v>
       </c>
@@ -21345,7 +21344,7 @@
         <v>-82.636257999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>195</v>
       </c>
@@ -21389,7 +21388,7 @@
         <v>-80.346215000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>503</v>
       </c>
@@ -21433,7 +21432,7 @@
         <v>-87.548377000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>286</v>
       </c>
@@ -21477,7 +21476,7 @@
         <v>-81.237433800000005</v>
       </c>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>581</v>
       </c>
@@ -21521,7 +21520,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>592</v>
       </c>
@@ -21565,7 +21564,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>438</v>
       </c>
@@ -21609,7 +21608,7 @@
         <v>-84.280199300000007</v>
       </c>
     </row>
-    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>244</v>
       </c>
@@ -21653,7 +21652,7 @@
         <v>-84.278023200000007</v>
       </c>
     </row>
-    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>166</v>
       </c>
@@ -21697,7 +21696,7 @@
         <v>-72.692237000000006</v>
       </c>
     </row>
-    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>528</v>
       </c>
@@ -21741,7 +21740,7 @@
         <v>-80.1208733</v>
       </c>
     </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>340</v>
       </c>
@@ -21785,7 +21784,7 @@
         <v>-84.223380000000006</v>
       </c>
     </row>
-    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>491</v>
       </c>
@@ -21832,7 +21831,7 @@
         <v>-93.454609899999994</v>
       </c>
     </row>
-    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>485</v>
       </c>
@@ -21879,7 +21878,7 @@
         <v>-84.278694099999996</v>
       </c>
     </row>
-    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>622</v>
       </c>
@@ -21926,7 +21925,7 @@
         <v>-84.278694099999996</v>
       </c>
     </row>
-    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>394</v>
       </c>
@@ -21970,7 +21969,7 @@
         <v>-82.642198800000003</v>
       </c>
     </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>242</v>
       </c>
@@ -22014,7 +22013,7 @@
         <v>-80.139832100000007</v>
       </c>
     </row>
-    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>509</v>
       </c>
@@ -22061,7 +22060,7 @@
         <v>-84.281278</v>
       </c>
     </row>
-    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>672</v>
       </c>
@@ -22108,7 +22107,7 @@
         <v>-84.216650200000004</v>
       </c>
     </row>
-    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>511</v>
       </c>
@@ -22152,7 +22151,7 @@
         <v>-81.345915599999998</v>
       </c>
     </row>
-    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>510</v>
       </c>
@@ -22196,7 +22195,7 @@
         <v>-81.345915599999998</v>
       </c>
     </row>
-    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>349</v>
       </c>
@@ -22243,7 +22242,7 @@
         <v>-84.279262500000002</v>
       </c>
     </row>
-    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>327</v>
       </c>
@@ -22287,7 +22286,7 @@
         <v>147.25319010000001</v>
       </c>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>582</v>
       </c>
@@ -22331,7 +22330,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>590</v>
       </c>
@@ -22375,7 +22374,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>498</v>
       </c>
@@ -22419,7 +22418,7 @@
         <v>-81.378050799999997</v>
       </c>
     </row>
-    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>335</v>
       </c>
@@ -22463,7 +22462,7 @@
         <v>-84.281081900000004</v>
       </c>
     </row>
-    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>163</v>
       </c>
@@ -22507,7 +22506,7 @@
         <v>-82.726798700000003</v>
       </c>
     </row>
-    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>468</v>
       </c>
@@ -22551,7 +22550,7 @@
         <v>-82.459330899999998</v>
       </c>
     </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>168</v>
       </c>
@@ -22595,7 +22594,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>179</v>
       </c>
@@ -22639,7 +22638,7 @@
         <v>-84.121844400000001</v>
       </c>
     </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>387</v>
       </c>
@@ -22686,7 +22685,7 @@
         <v>-84.279262500000002</v>
       </c>
     </row>
-    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>595</v>
       </c>
@@ -22730,7 +22729,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>644</v>
       </c>
@@ -22774,7 +22773,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>474</v>
       </c>
@@ -22818,7 +22817,7 @@
         <v>-80.257292899999996</v>
       </c>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>296</v>
       </c>
@@ -22862,7 +22861,7 @@
         <v>-82.435698099999996</v>
       </c>
     </row>
-    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>566</v>
       </c>
@@ -22906,7 +22905,7 @@
         <v>-80.297092599999999</v>
       </c>
     </row>
-    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>577</v>
       </c>
@@ -22950,7 +22949,7 @@
         <v>149.5854923</v>
       </c>
     </row>
-    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>632</v>
       </c>
@@ -22994,7 +22993,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>403</v>
       </c>
@@ -23038,7 +23037,7 @@
         <v>-80.3586636</v>
       </c>
     </row>
-    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>476</v>
       </c>
@@ -23082,7 +23081,7 @@
         <v>-80.149526300000005</v>
       </c>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>611</v>
       </c>
@@ -23126,7 +23125,7 @@
         <v>-81.850447000000003</v>
       </c>
     </row>
-    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>637</v>
       </c>
@@ -23170,7 +23169,7 @@
         <v>-80.090498299999993</v>
       </c>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>631</v>
       </c>
@@ -23214,7 +23213,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>512</v>
       </c>
@@ -23258,7 +23257,7 @@
         <v>-81.345915599999998</v>
       </c>
     </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>591</v>
       </c>
@@ -23302,7 +23301,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>597</v>
       </c>
@@ -23346,7 +23345,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>332</v>
       </c>
@@ -23390,7 +23389,7 @@
         <v>-84.281058299999998</v>
       </c>
     </row>
-    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>211</v>
       </c>
@@ -23434,7 +23433,7 @@
         <v>-81.877161999999998</v>
       </c>
     </row>
-    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>458</v>
       </c>
@@ -23478,7 +23477,7 @@
         <v>-82.405858699999996</v>
       </c>
     </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>313</v>
       </c>
@@ -23522,7 +23521,7 @@
         <v>-84.121844400000001</v>
       </c>
     </row>
-    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>233</v>
       </c>
@@ -23566,7 +23565,7 @@
         <v>-84.280501599999994</v>
       </c>
     </row>
-    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>266</v>
       </c>
@@ -23610,7 +23609,7 @@
         <v>-81.364180399999995</v>
       </c>
     </row>
-    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>660</v>
       </c>
@@ -23654,7 +23653,7 @@
         <v>-87.868849999999995</v>
       </c>
     </row>
-    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>661</v>
       </c>
@@ -23698,7 +23697,7 @@
         <v>-87.868849999999995</v>
       </c>
     </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>515</v>
       </c>
@@ -23742,7 +23741,7 @@
         <v>-80.297494799999996</v>
       </c>
     </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>177</v>
       </c>
@@ -23786,7 +23785,7 @@
         <v>-111.914908</v>
       </c>
     </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>382</v>
       </c>
@@ -23830,7 +23829,7 @@
         <v>-84.280501599999994</v>
       </c>
     </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>616</v>
       </c>
@@ -23874,7 +23873,7 @@
         <v>-84.280501599999994</v>
       </c>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>232</v>
       </c>
@@ -23918,7 +23917,7 @@
         <v>-84.280501599999994</v>
       </c>
     </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>336</v>
       </c>
@@ -23962,7 +23961,7 @@
         <v>-84.281081900000004</v>
       </c>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>326</v>
       </c>
@@ -24006,7 +24005,7 @@
         <v>-84.233201100000002</v>
       </c>
     </row>
-    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>316</v>
       </c>
@@ -24050,7 +24049,7 @@
         <v>-80.052923100000001</v>
       </c>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>312</v>
       </c>
@@ -24094,7 +24093,7 @@
         <v>-81.948876900000002</v>
       </c>
     </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>391</v>
       </c>
@@ -24138,7 +24137,7 @@
         <v>-84.281377000000006</v>
       </c>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>490</v>
       </c>
@@ -24185,7 +24184,7 @@
         <v>-93.454609899999994</v>
       </c>
     </row>
-    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>345</v>
       </c>
@@ -24229,7 +24228,7 @@
         <v>-80.057776799999999</v>
       </c>
     </row>
-    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>309</v>
       </c>
@@ -24273,7 +24272,7 @@
         <v>-81.408959699999997</v>
       </c>
     </row>
-    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>585</v>
       </c>
@@ -24317,7 +24316,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>594</v>
       </c>
@@ -24361,7 +24360,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>245</v>
       </c>
@@ -24405,7 +24404,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>265</v>
       </c>
@@ -24449,7 +24448,7 @@
         <v>-81.812633000000005</v>
       </c>
     </row>
-    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>173</v>
       </c>
@@ -24493,7 +24492,7 @@
         <v>-81.818963699999998</v>
       </c>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>448</v>
       </c>
@@ -24537,7 +24536,7 @@
         <v>-84.253805799999995</v>
       </c>
     </row>
-    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>586</v>
       </c>
@@ -24581,7 +24580,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>593</v>
       </c>
@@ -24625,7 +24624,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>650</v>
       </c>
@@ -24669,7 +24668,7 @@
         <v>-81.473606000000004</v>
       </c>
     </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>375</v>
       </c>
@@ -24713,7 +24712,7 @@
         <v>-82.2179371</v>
       </c>
     </row>
-    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>587</v>
       </c>
@@ -24757,7 +24756,7 @@
         <v>-80.9357057</v>
       </c>
     </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>310</v>
       </c>
@@ -24801,7 +24800,7 @@
         <v>-81.408959699999997</v>
       </c>
     </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>350</v>
       </c>
@@ -24845,7 +24844,7 @@
         <v>-101.8421735</v>
       </c>
     </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>526</v>
       </c>
@@ -24889,7 +24888,7 @@
         <v>-121.88866160000001</v>
       </c>
     </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>607</v>
       </c>
@@ -24933,7 +24932,7 @@
         <v>-81.526921599999994</v>
       </c>
     </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>493</v>
       </c>
@@ -24977,7 +24976,7 @@
         <v>-81.552496000000005</v>
       </c>
     </row>
-    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>431</v>
       </c>
@@ -25021,7 +25020,7 @@
         <v>-104.857828</v>
       </c>
     </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>401</v>
       </c>
@@ -25050,7 +25049,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>239</v>
       </c>
@@ -25094,7 +25093,7 @@
         <v>-85.167952</v>
       </c>
     </row>
-    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>257</v>
       </c>
@@ -25138,7 +25137,7 @@
         <v>-79.523414900000006</v>
       </c>
     </row>
-    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>339</v>
       </c>
@@ -25182,7 +25181,7 @@
         <v>-84.223380000000006</v>
       </c>
     </row>
-    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>359</v>
       </c>
@@ -25226,7 +25225,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>318</v>
       </c>
@@ -25270,7 +25269,7 @@
         <v>-84.264754199999999</v>
       </c>
     </row>
-    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>518</v>
       </c>
@@ -25314,7 +25313,7 @@
         <v>-81.623936200000003</v>
       </c>
     </row>
-    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>175</v>
       </c>
@@ -25358,7 +25357,7 @@
         <v>-80.373637000000002</v>
       </c>
     </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>487</v>
       </c>
@@ -25402,7 +25401,7 @@
         <v>-84.281720800000002</v>
       </c>
     </row>
-    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>598</v>
       </c>
@@ -25446,7 +25445,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>428</v>
       </c>
@@ -25490,7 +25489,7 @@
         <v>-80.115386000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>440</v>
       </c>
@@ -25534,7 +25533,7 @@
         <v>-85.762670499999999</v>
       </c>
     </row>
-    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>346</v>
       </c>
@@ -25578,7 +25577,7 @@
         <v>-84.283473400000005</v>
       </c>
     </row>
-    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>410</v>
       </c>
@@ -25622,7 +25621,7 @@
         <v>-81.534229499999995</v>
       </c>
     </row>
-    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>322</v>
       </c>
@@ -25666,7 +25665,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>588</v>
       </c>
@@ -25710,7 +25709,7 @@
         <v>-81.090896999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>649</v>
       </c>
@@ -25754,7 +25753,7 @@
         <v>-81.090896999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>203</v>
       </c>
@@ -25798,7 +25797,7 @@
         <v>-81.600400699999994</v>
       </c>
     </row>
-    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>539</v>
       </c>
@@ -25842,7 +25841,7 @@
         <v>-81.362801500000003</v>
       </c>
     </row>
-    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>655</v>
       </c>
@@ -25886,7 +25885,7 @@
         <v>-82.456914100000006</v>
       </c>
     </row>
-    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>378</v>
       </c>
@@ -25930,7 +25929,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>389</v>
       </c>
@@ -25974,7 +25973,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>555</v>
       </c>
@@ -26018,7 +26017,7 @@
         <v>-87.202644100000001</v>
       </c>
     </row>
-    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>479</v>
       </c>
@@ -26062,7 +26061,7 @@
         <v>-97.535793999999996</v>
       </c>
     </row>
-    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>657</v>
       </c>
@@ -26106,7 +26105,7 @@
         <v>-84.279847000000004</v>
       </c>
     </row>
-    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>505</v>
       </c>
@@ -26150,7 +26149,7 @@
         <v>-87.2322056</v>
       </c>
     </row>
-    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>459</v>
       </c>
@@ -26194,7 +26193,7 @@
         <v>-87.181415900000005</v>
       </c>
     </row>
-    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>671</v>
       </c>
@@ -26238,7 +26237,7 @@
         <v>-87.225245400000006</v>
       </c>
     </row>
-    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>441</v>
       </c>
@@ -26282,7 +26281,7 @@
         <v>-87.225245400000006</v>
       </c>
     </row>
-    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>513</v>
       </c>
@@ -26323,7 +26322,7 @@
         <v>-85.667302599999999</v>
       </c>
     </row>
-    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>561</v>
       </c>
@@ -26367,7 +26366,7 @@
         <v>-80.154364700000002</v>
       </c>
     </row>
-    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>328</v>
       </c>
@@ -26411,7 +26410,7 @@
         <v>-84.284693700000005</v>
       </c>
     </row>
-    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>171</v>
       </c>
@@ -26455,7 +26454,7 @@
         <v>-85.660716899999997</v>
       </c>
     </row>
-    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>392</v>
       </c>
@@ -26499,7 +26498,7 @@
         <v>-84.266757499999997</v>
       </c>
     </row>
-    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>176</v>
       </c>
@@ -26543,7 +26542,7 @@
         <v>-81.807056000000003</v>
       </c>
     </row>
-    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>289</v>
       </c>
@@ -26587,7 +26586,7 @@
         <v>-85.817397200000002</v>
       </c>
     </row>
-    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>288</v>
       </c>
@@ -26631,7 +26630,7 @@
         <v>-85.817397200000002</v>
       </c>
     </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>651</v>
       </c>
@@ -26675,7 +26674,7 @@
         <v>-87.043024299999999</v>
       </c>
     </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>178</v>
       </c>
@@ -26719,7 +26718,7 @@
         <v>-85.748219800000001</v>
       </c>
     </row>
-    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>557</v>
       </c>
@@ -26763,7 +26762,7 @@
         <v>-85.665631099999999</v>
       </c>
     </row>
-    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>488</v>
       </c>
@@ -26807,7 +26806,7 @@
         <v>-85.519811200000007</v>
       </c>
     </row>
-    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>497</v>
       </c>
@@ -26851,7 +26850,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>480</v>
       </c>
@@ -26892,7 +26891,7 @@
         <v>-84.251029599999995</v>
       </c>
     </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>234</v>
       </c>
@@ -26936,7 +26935,7 @@
         <v>-80.165059099999993</v>
       </c>
     </row>
-    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>533</v>
       </c>
@@ -26980,7 +26979,7 @@
         <v>-84.338283000000004</v>
       </c>
     </row>
-    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>262</v>
       </c>
@@ -27024,7 +27023,7 @@
         <v>-83.716999400000006</v>
       </c>
     </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>449</v>
       </c>
@@ -27065,7 +27064,7 @@
         <v>-80.049454100000005</v>
       </c>
     </row>
-    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>182</v>
       </c>
@@ -27106,7 +27105,7 @@
         <v>-80.2859847</v>
       </c>
     </row>
-    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>620</v>
       </c>
@@ -27150,7 +27149,7 @@
         <v>-80.327387999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>301</v>
       </c>
@@ -27194,7 +27193,7 @@
         <v>-84.249336</v>
       </c>
     </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>264</v>
       </c>
@@ -27235,7 +27234,7 @@
         <v>-85.644485700000004</v>
       </c>
     </row>
-    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>426</v>
       </c>
@@ -27279,7 +27278,7 @@
         <v>-84.182007900000002</v>
       </c>
     </row>
-    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>237</v>
       </c>
@@ -27323,7 +27322,7 @@
         <v>-84.283473400000005</v>
       </c>
     </row>
-    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>639</v>
       </c>
@@ -27367,7 +27366,7 @@
         <v>-81.349332799999999</v>
       </c>
     </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>542</v>
       </c>
@@ -27408,7 +27407,7 @@
         <v>-81.349332799999999</v>
       </c>
     </row>
-    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>454</v>
       </c>
@@ -27449,7 +27448,7 @@
         <v>-87.259904199999994</v>
       </c>
     </row>
-    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>473</v>
       </c>
@@ -27490,7 +27489,7 @@
         <v>-82.681141800000006</v>
       </c>
     </row>
-    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>353</v>
       </c>
@@ -27534,7 +27533,7 @@
         <v>-84.278688799999998</v>
       </c>
     </row>
-    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>483</v>
       </c>
@@ -27578,7 +27577,7 @@
         <v>-84.272869</v>
       </c>
     </row>
-    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>461</v>
       </c>
@@ -27622,7 +27621,7 @@
         <v>-87.043024299999999</v>
       </c>
     </row>
-    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>567</v>
       </c>
@@ -27663,7 +27662,7 @@
         <v>-87.069011399999994</v>
       </c>
     </row>
-    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>386</v>
       </c>
@@ -27704,7 +27703,7 @@
         <v>-82.003286000000003</v>
       </c>
     </row>
-    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>612</v>
       </c>
@@ -27748,7 +27747,7 @@
         <v>-81.525356000000002</v>
       </c>
     </row>
-    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>248</v>
       </c>
@@ -27789,7 +27788,7 @@
         <v>-87.190493000000004</v>
       </c>
     </row>
-    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>325</v>
       </c>
@@ -27833,7 +27832,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>220</v>
       </c>
@@ -27877,7 +27876,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>527</v>
       </c>
@@ -27921,7 +27920,7 @@
         <v>-87.225245400000006</v>
       </c>
     </row>
-    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>599</v>
       </c>
@@ -27965,7 +27964,7 @@
         <v>-81.873429200000004</v>
       </c>
     </row>
-    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>446</v>
       </c>
@@ -28006,7 +28005,7 @@
         <v>-92.111298399999995</v>
       </c>
     </row>
-    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>305</v>
       </c>
@@ -28050,7 +28049,7 @@
         <v>-81.644987</v>
       </c>
     </row>
-    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>283</v>
       </c>
@@ -28091,7 +28090,7 @@
         <v>-81.588390200000006</v>
       </c>
     </row>
-    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>393</v>
       </c>
@@ -28135,7 +28134,7 @@
         <v>-81.364624300000003</v>
       </c>
     </row>
-    <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>455</v>
       </c>
@@ -28176,7 +28175,7 @@
         <v>-96.115874000000005</v>
       </c>
     </row>
-    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>416</v>
       </c>
@@ -28220,7 +28219,7 @@
         <v>-85.831526999999994</v>
       </c>
     </row>
-    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>396</v>
       </c>
@@ -28264,7 +28263,7 @@
         <v>-82.402475100000004</v>
       </c>
     </row>
-    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>663</v>
       </c>
@@ -28308,7 +28307,7 @@
         <v>-82.284316500000003</v>
       </c>
     </row>
-    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>508</v>
       </c>
@@ -28352,7 +28351,7 @@
         <v>-81.450142</v>
       </c>
     </row>
-    <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>279</v>
       </c>
@@ -28396,7 +28395,7 @@
         <v>-80.178595999999999</v>
       </c>
     </row>
-    <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>221</v>
       </c>
@@ -28440,7 +28439,7 @@
         <v>-122.6372525</v>
       </c>
     </row>
-    <row r="459" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>439</v>
       </c>
@@ -28484,7 +28483,7 @@
         <v>-81.534229499999995</v>
       </c>
     </row>
-    <row r="460" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>434</v>
       </c>
@@ -28531,7 +28530,7 @@
         <v>-85.597243000000006</v>
       </c>
     </row>
-    <row r="461" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>489</v>
       </c>
@@ -28572,7 +28571,7 @@
         <v>-85.679234199999996</v>
       </c>
     </row>
-    <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>424</v>
       </c>
@@ -28613,7 +28612,7 @@
         <v>-85.653584600000002</v>
       </c>
     </row>
-    <row r="463" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>442</v>
       </c>
@@ -28654,7 +28653,7 @@
         <v>-85.664583300000004</v>
       </c>
     </row>
-    <row r="464" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>437</v>
       </c>
@@ -28698,7 +28697,7 @@
         <v>-85.881084999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>196</v>
       </c>
@@ -28739,7 +28738,7 @@
         <v>-85.664505000000005</v>
       </c>
     </row>
-    <row r="466" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>421</v>
       </c>
@@ -28780,7 +28779,7 @@
         <v>-85.653371300000003</v>
       </c>
     </row>
-    <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>270</v>
       </c>
@@ -28821,7 +28820,7 @@
         <v>-86.0108149</v>
       </c>
     </row>
-    <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>255</v>
       </c>
@@ -28865,7 +28864,7 @@
         <v>-82.701894600000003</v>
       </c>
     </row>
-    <row r="469" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>614</v>
       </c>
@@ -28909,7 +28908,7 @@
         <v>-87.185009500000007</v>
       </c>
     </row>
-    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>654</v>
       </c>
@@ -28953,7 +28952,7 @@
         <v>-82.456914100000006</v>
       </c>
     </row>
-    <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>635</v>
       </c>
@@ -28997,7 +28996,7 @@
         <v>-86.929208000000003</v>
       </c>
     </row>
-    <row r="472" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>653</v>
       </c>
@@ -29041,7 +29040,7 @@
         <v>-80.063654700000001</v>
       </c>
     </row>
-    <row r="473" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>574</v>
       </c>
@@ -29085,7 +29084,7 @@
         <v>-80.253443399999995</v>
       </c>
     </row>
-    <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>207</v>
       </c>
@@ -29129,7 +29128,7 @@
         <v>-84.280917500000001</v>
       </c>
     </row>
-    <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>478</v>
       </c>
@@ -29173,7 +29172,7 @@
         <v>-84.236047999999997</v>
       </c>
     </row>
-    <row r="476" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>170</v>
       </c>
@@ -29217,7 +29216,7 @@
         <v>-82.399332799999996</v>
       </c>
     </row>
-    <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>462</v>
       </c>
@@ -29261,7 +29260,7 @@
         <v>-81.904486599999998</v>
       </c>
     </row>
-    <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>379</v>
       </c>
@@ -29305,7 +29304,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="479" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>197</v>
       </c>
@@ -29349,7 +29348,7 @@
         <v>-83.716999400000006</v>
       </c>
     </row>
-    <row r="480" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>247</v>
       </c>
@@ -29393,7 +29392,7 @@
         <v>-82.701894600000003</v>
       </c>
     </row>
-    <row r="481" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>463</v>
       </c>
@@ -29437,7 +29436,7 @@
         <v>-82.599144600000002</v>
       </c>
     </row>
-    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>311</v>
       </c>
@@ -29481,7 +29480,7 @@
         <v>-81.948876900000002</v>
       </c>
     </row>
-    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>290</v>
       </c>
@@ -29525,7 +29524,7 @@
         <v>-85.817397200000002</v>
       </c>
     </row>
-    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>338</v>
       </c>
@@ -29569,7 +29568,7 @@
         <v>-84.279305899999997</v>
       </c>
     </row>
-    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>674</v>
       </c>
@@ -29613,7 +29612,7 @@
         <v>-85.635254200000006</v>
       </c>
     </row>
-    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>329</v>
       </c>
@@ -29657,7 +29656,7 @@
         <v>-84.284693700000005</v>
       </c>
     </row>
-    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>433</v>
       </c>
@@ -29704,7 +29703,7 @@
         <v>-85.597243000000006</v>
       </c>
     </row>
-    <row r="488" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>372</v>
       </c>
@@ -29748,7 +29747,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>371</v>
       </c>
@@ -29792,7 +29791,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>190</v>
       </c>
@@ -29839,7 +29838,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>214</v>
       </c>
@@ -29883,7 +29882,7 @@
         <v>-85.657042000000004</v>
       </c>
     </row>
-    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>419</v>
       </c>
@@ -29927,7 +29926,7 @@
         <v>-85.657042000000004</v>
       </c>
     </row>
-    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>538</v>
       </c>
@@ -29968,7 +29967,7 @@
         <v>-87.265234100000001</v>
       </c>
     </row>
-    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>472</v>
       </c>
@@ -30012,7 +30011,7 @@
         <v>-87.189702699999998</v>
       </c>
     </row>
-    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>475</v>
       </c>
@@ -30053,7 +30052,7 @@
         <v>-87.096307400000001</v>
       </c>
     </row>
-    <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>209</v>
       </c>
@@ -30097,7 +30096,7 @@
         <v>-87.1935024</v>
       </c>
     </row>
-    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>347</v>
       </c>
@@ -30141,7 +30140,7 @@
         <v>-84.283473400000005</v>
       </c>
     </row>
-    <row r="498" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>465</v>
       </c>
@@ -30185,7 +30184,7 @@
         <v>-96.374373399999996</v>
       </c>
     </row>
-    <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>615</v>
       </c>
@@ -30229,7 +30228,7 @@
         <v>-85.664782200000005</v>
       </c>
     </row>
-    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>427</v>
       </c>
@@ -30270,7 +30269,7 @@
         <v>-87.175695399999995</v>
       </c>
     </row>
-    <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>314</v>
       </c>
@@ -30314,7 +30313,7 @@
         <v>-84.279438999999996</v>
       </c>
     </row>
-    <row r="502" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>268</v>
       </c>
@@ -30358,7 +30357,7 @@
         <v>-87.215264300000001</v>
       </c>
     </row>
-    <row r="503" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>212</v>
       </c>
@@ -30399,7 +30398,7 @@
         <v>-87.172491399999998</v>
       </c>
     </row>
-    <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>409</v>
       </c>
@@ -30443,7 +30442,7 @@
         <v>-85.665894899999998</v>
       </c>
     </row>
-    <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>275</v>
       </c>
@@ -30484,7 +30483,7 @@
         <v>-87.186137200000005</v>
       </c>
     </row>
-    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>609</v>
       </c>
@@ -30528,7 +30527,7 @@
         <v>-87.163281499999997</v>
       </c>
     </row>
-    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>556</v>
       </c>
@@ -30569,7 +30568,7 @@
         <v>-87.169539400000005</v>
       </c>
     </row>
-    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>213</v>
       </c>
@@ -30613,7 +30612,7 @@
         <v>-86.988693299999994</v>
       </c>
     </row>
-    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>235</v>
       </c>
@@ -30654,7 +30653,7 @@
         <v>-87.263758499999994</v>
       </c>
     </row>
-    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>194</v>
       </c>
@@ -30698,7 +30697,7 @@
         <v>-81.297017199999999</v>
       </c>
     </row>
-    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>256</v>
       </c>
@@ -30742,7 +30741,7 @@
         <v>-85.774251000000007</v>
       </c>
     </row>
-    <row r="512" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>417</v>
       </c>
@@ -30786,7 +30785,7 @@
         <v>-80.139368099999999</v>
       </c>
     </row>
-    <row r="513" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>238</v>
       </c>
@@ -30830,7 +30829,7 @@
         <v>-82.554490000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>400</v>
       </c>
@@ -30859,7 +30858,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="515" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>210</v>
       </c>
@@ -30888,7 +30887,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="516" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>554</v>
       </c>
@@ -30932,7 +30931,7 @@
         <v>-87.202644100000001</v>
       </c>
     </row>
-    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>481</v>
       </c>
@@ -30976,7 +30975,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="518" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>202</v>
       </c>
@@ -31020,7 +31019,7 @@
         <v>-87.225245400000006</v>
       </c>
     </row>
-    <row r="519" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>624</v>
       </c>
@@ -31064,7 +31063,7 @@
         <v>-91.136859999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>189</v>
       </c>
@@ -31108,7 +31107,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="521" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>186</v>
       </c>
@@ -31152,7 +31151,7 @@
         <v>-80.123186000000004</v>
       </c>
     </row>
-    <row r="522" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>183</v>
       </c>
@@ -31196,7 +31195,7 @@
         <v>-80.123186000000004</v>
       </c>
     </row>
-    <row r="523" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>646</v>
       </c>
@@ -31240,7 +31239,7 @@
         <v>-81.090896999999998</v>
       </c>
     </row>
-    <row r="524" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>198</v>
       </c>
@@ -31284,7 +31283,7 @@
         <v>-87.225245400000006</v>
       </c>
     </row>
-    <row r="525" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>664</v>
       </c>
@@ -31328,7 +31327,7 @@
         <v>-87.225245400000006</v>
       </c>
     </row>
-    <row r="526" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>665</v>
       </c>
@@ -31372,7 +31371,7 @@
         <v>-87.225245400000006</v>
       </c>
     </row>
-    <row r="527" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>625</v>
       </c>
@@ -31416,7 +31415,7 @@
         <v>-87.225245400000006</v>
       </c>
     </row>
-    <row r="528" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>602</v>
       </c>
@@ -31460,7 +31459,7 @@
         <v>-87.225245400000006</v>
       </c>
     </row>
-    <row r="529" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>280</v>
       </c>
@@ -31501,7 +31500,7 @@
         <v>-85.666105999999999</v>
       </c>
     </row>
-    <row r="530" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>541</v>
       </c>
@@ -31545,7 +31544,7 @@
         <v>-85.666105999999999</v>
       </c>
     </row>
-    <row r="531" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>303</v>
       </c>
@@ -31589,7 +31588,7 @@
         <v>-85.697426199999995</v>
       </c>
     </row>
-    <row r="532" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>550</v>
       </c>
@@ -31633,7 +31632,7 @@
         <v>-85.703483000000006</v>
       </c>
     </row>
-    <row r="533" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>405</v>
       </c>
@@ -31677,7 +31676,7 @@
         <v>-80.140124900000004</v>
       </c>
     </row>
-    <row r="534" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>547</v>
       </c>
@@ -31721,7 +31720,7 @@
         <v>-85.700738000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>525</v>
       </c>
@@ -31765,7 +31764,7 @@
         <v>-85.6654214</v>
       </c>
     </row>
-    <row r="536" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>172</v>
       </c>
@@ -31806,7 +31805,7 @@
         <v>-85.720782299999996</v>
       </c>
     </row>
-    <row r="537" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>319</v>
       </c>
@@ -31850,7 +31849,7 @@
         <v>-84.259370000000004</v>
       </c>
     </row>
-    <row r="538" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>415</v>
       </c>
@@ -31894,7 +31893,7 @@
         <v>-85.392137700000006</v>
       </c>
     </row>
-    <row r="539" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>560</v>
       </c>
@@ -31938,7 +31937,7 @@
         <v>-82.585398999999995</v>
       </c>
     </row>
-    <row r="540" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>398</v>
       </c>
@@ -31982,7 +31981,7 @@
         <v>-85.682709399999993</v>
       </c>
     </row>
-    <row r="541" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>413</v>
       </c>
@@ -32026,7 +32025,7 @@
         <v>-85.635548</v>
       </c>
     </row>
-    <row r="542" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>217</v>
       </c>
@@ -32070,7 +32069,7 @@
         <v>-85.659825299999994</v>
       </c>
     </row>
-    <row r="543" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>165</v>
       </c>
@@ -32114,7 +32113,7 @@
         <v>-85.663112299999995</v>
       </c>
     </row>
-    <row r="544" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>676</v>
       </c>
@@ -32155,7 +32154,7 @@
         <v>-85.639186499999994</v>
       </c>
     </row>
-    <row r="545" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>675</v>
       </c>
@@ -32196,7 +32195,7 @@
         <v>-85.639186499999994</v>
       </c>
     </row>
-    <row r="546" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>667</v>
       </c>
@@ -32240,7 +32239,7 @@
         <v>-85.697812299999995</v>
       </c>
     </row>
-    <row r="547" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>572</v>
       </c>
@@ -32284,7 +32283,7 @@
         <v>-85.700507799999997</v>
       </c>
     </row>
-    <row r="548" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>457</v>
       </c>
@@ -32328,7 +32327,7 @@
         <v>-85.697582699999998</v>
       </c>
     </row>
-    <row r="549" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>450</v>
       </c>
@@ -32372,7 +32371,7 @@
         <v>-85.703078599999998</v>
       </c>
     </row>
-    <row r="550" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>422</v>
       </c>
@@ -32413,7 +32412,7 @@
         <v>-85.612093900000005</v>
       </c>
     </row>
-    <row r="551" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>565</v>
       </c>
@@ -32457,7 +32456,7 @@
         <v>-85.701769299999995</v>
       </c>
     </row>
-    <row r="552" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>226</v>
       </c>
@@ -32501,7 +32500,7 @@
         <v>-85.7066844</v>
       </c>
     </row>
-    <row r="553" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>634</v>
       </c>
@@ -32542,7 +32541,7 @@
         <v>-85.6618268</v>
       </c>
     </row>
-    <row r="554" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>162</v>
       </c>
@@ -32583,7 +32582,7 @@
         <v>-85.7001135</v>
       </c>
     </row>
-    <row r="555" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>552</v>
       </c>
@@ -32627,7 +32626,7 @@
         <v>-85.647608500000004</v>
       </c>
     </row>
-    <row r="556" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>273</v>
       </c>
@@ -32671,7 +32670,7 @@
         <v>-85.647467300000002</v>
       </c>
     </row>
-    <row r="557" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>499</v>
       </c>
@@ -32715,7 +32714,7 @@
         <v>-85.671041200000005</v>
       </c>
     </row>
-    <row r="558" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>471</v>
       </c>
@@ -32756,7 +32755,7 @@
         <v>-85.6701458</v>
       </c>
     </row>
-    <row r="559" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>453</v>
       </c>
@@ -32797,7 +32796,7 @@
         <v>-85.647693200000006</v>
       </c>
     </row>
-    <row r="560" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>249</v>
       </c>
@@ -32841,7 +32840,7 @@
         <v>-85.6531612</v>
       </c>
     </row>
-    <row r="561" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>524</v>
       </c>
@@ -32885,7 +32884,7 @@
         <v>-85.666047399999997</v>
       </c>
     </row>
-    <row r="562" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>263</v>
       </c>
@@ -32929,7 +32928,7 @@
         <v>-85.732678000000007</v>
       </c>
     </row>
-    <row r="563" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>636</v>
       </c>
@@ -32970,7 +32969,7 @@
         <v>-85.638243200000005</v>
       </c>
     </row>
-    <row r="564" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>521</v>
       </c>
@@ -33014,7 +33013,7 @@
         <v>-85.663689000000005</v>
       </c>
     </row>
-    <row r="565" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>522</v>
       </c>
@@ -33058,7 +33057,7 @@
         <v>-85.663689000000005</v>
       </c>
     </row>
-    <row r="566" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>520</v>
       </c>
@@ -33099,7 +33098,7 @@
         <v>-85.647665000000003</v>
       </c>
     </row>
-    <row r="567" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>523</v>
       </c>
@@ -33143,7 +33142,7 @@
         <v>-85.647665000000003</v>
       </c>
     </row>
-    <row r="568" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>673</v>
       </c>
@@ -33187,7 +33186,7 @@
         <v>-85.802160999999998</v>
       </c>
     </row>
-    <row r="569" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>543</v>
       </c>
@@ -33231,7 +33230,7 @@
         <v>-79.523414900000006</v>
       </c>
     </row>
-    <row r="570" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>272</v>
       </c>
@@ -33278,7 +33277,7 @@
         <v>-85.647467300000002</v>
       </c>
     </row>
-    <row r="571" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>545</v>
       </c>
@@ -33325,7 +33324,7 @@
         <v>-85.663689000000005</v>
       </c>
     </row>
-    <row r="572" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>370</v>
       </c>
@@ -33369,7 +33368,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="573" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>456</v>
       </c>
@@ -33413,7 +33412,7 @@
         <v>-81.737182500000003</v>
       </c>
     </row>
-    <row r="574" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>436</v>
       </c>
@@ -33457,7 +33456,7 @@
         <v>-81.939295099999995</v>
       </c>
     </row>
-    <row r="575" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>225</v>
       </c>
@@ -33501,7 +33500,7 @@
         <v>-82.642198800000003</v>
       </c>
     </row>
-    <row r="576" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>258</v>
       </c>
@@ -33545,7 +33544,7 @@
         <v>-84.228792999999996</v>
       </c>
     </row>
-    <row r="577" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>361</v>
       </c>
@@ -33589,7 +33588,7 @@
         <v>-113.9858579</v>
       </c>
     </row>
-    <row r="578" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>606</v>
       </c>
@@ -33633,7 +33632,7 @@
         <v>-90.181910999999999</v>
       </c>
     </row>
-    <row r="579" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>291</v>
       </c>
@@ -33677,7 +33676,7 @@
         <v>-85.817397200000002</v>
       </c>
     </row>
-    <row r="580" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>662</v>
       </c>
@@ -33721,7 +33720,7 @@
         <v>-87.870653000000004</v>
       </c>
     </row>
-    <row r="581" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>354</v>
       </c>
@@ -33765,7 +33764,7 @@
         <v>-84.278688799999998</v>
       </c>
     </row>
-    <row r="582" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>517</v>
       </c>
@@ -33809,7 +33808,7 @@
         <v>-81.623936200000003</v>
       </c>
     </row>
-    <row r="583" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>167</v>
       </c>
@@ -33853,7 +33852,7 @@
         <v>-80.067989800000007</v>
       </c>
     </row>
-    <row r="584" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>292</v>
       </c>
@@ -33897,7 +33896,7 @@
         <v>-85.817397200000002</v>
       </c>
     </row>
-    <row r="585" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>259</v>
       </c>
@@ -33941,7 +33940,7 @@
         <v>-122.444335</v>
       </c>
     </row>
-    <row r="586" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>605</v>
       </c>
@@ -33985,7 +33984,7 @@
         <v>-80.173404199999993</v>
       </c>
     </row>
-    <row r="587" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>562</v>
       </c>
@@ -34029,7 +34028,7 @@
         <v>-80.154364700000002</v>
       </c>
     </row>
-    <row r="588" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>618</v>
       </c>
@@ -34073,7 +34072,7 @@
         <v>-80.052503999999999</v>
       </c>
     </row>
-    <row r="589" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>444</v>
       </c>
@@ -34117,7 +34116,7 @@
         <v>-82.737299899999996</v>
       </c>
     </row>
-    <row r="590" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>452</v>
       </c>
@@ -34161,7 +34160,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="591" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>192</v>
       </c>
@@ -34205,7 +34204,7 @@
         <v>-84.280293900000004</v>
       </c>
     </row>
-    <row r="592" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>496</v>
       </c>
@@ -34252,7 +34251,7 @@
         <v>-82.435698099999996</v>
       </c>
     </row>
-    <row r="593" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>366</v>
       </c>
@@ -34296,7 +34295,7 @@
         <v>-113.9858579</v>
       </c>
     </row>
-    <row r="594" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>193</v>
       </c>
@@ -34340,7 +34339,7 @@
         <v>-84.280293900000004</v>
       </c>
     </row>
-    <row r="595" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>360</v>
       </c>
@@ -34384,7 +34383,7 @@
         <v>-113.9858579</v>
       </c>
     </row>
-    <row r="596" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>307</v>
       </c>
@@ -34428,7 +34427,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="597" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>540</v>
       </c>
@@ -34472,7 +34471,7 @@
         <v>-84.259980999999996</v>
       </c>
     </row>
-    <row r="598" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>324</v>
       </c>
@@ -34516,7 +34515,7 @@
         <v>-82.3291167</v>
       </c>
     </row>
-    <row r="599" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>373</v>
       </c>
@@ -34560,7 +34559,7 @@
         <v>-84.2790909</v>
       </c>
     </row>
-    <row r="600" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>331</v>
       </c>
@@ -34604,7 +34603,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="601" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>469</v>
       </c>
@@ -34648,7 +34647,7 @@
         <v>-81.553757099999999</v>
       </c>
     </row>
-    <row r="602" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>308</v>
       </c>
@@ -34692,7 +34691,7 @@
         <v>-84.280953499999995</v>
       </c>
     </row>
-    <row r="603" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>298</v>
       </c>
@@ -34736,7 +34735,7 @@
         <v>-84.281704000000005</v>
       </c>
     </row>
-    <row r="604" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>500</v>
       </c>
@@ -34780,7 +34779,7 @@
         <v>-120.3519094</v>
       </c>
     </row>
-    <row r="605" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>652</v>
       </c>
@@ -34824,7 +34823,7 @@
         <v>-80.106564000000006</v>
       </c>
     </row>
-    <row r="606" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>519</v>
       </c>
@@ -34868,7 +34867,7 @@
         <v>-80.081097999999997</v>
       </c>
     </row>
-    <row r="607" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>502</v>
       </c>
@@ -34912,7 +34911,7 @@
         <v>-81.322905000000006</v>
       </c>
     </row>
-    <row r="608" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>670</v>
       </c>
@@ -34956,7 +34955,7 @@
         <v>-84.707300000000004</v>
       </c>
     </row>
-    <row r="609" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>356</v>
       </c>
@@ -35000,7 +34999,7 @@
         <v>-84.278688799999998</v>
       </c>
     </row>
-    <row r="610" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>506</v>
       </c>
@@ -35044,7 +35043,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="611" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>536</v>
       </c>
@@ -35088,7 +35087,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="612" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>464</v>
       </c>
@@ -35132,7 +35131,7 @@
         <v>-82.599144600000002</v>
       </c>
     </row>
-    <row r="613" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>656</v>
       </c>
@@ -35176,7 +35175,7 @@
         <v>-82.456914100000006</v>
       </c>
     </row>
-    <row r="614" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>377</v>
       </c>
@@ -35220,7 +35219,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="615" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>261</v>
       </c>
@@ -35264,7 +35263,7 @@
         <v>-83.716999400000006</v>
       </c>
     </row>
-    <row r="616" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>321</v>
       </c>
@@ -35308,7 +35307,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="617" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>204</v>
       </c>
@@ -35352,7 +35351,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="618" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>188</v>
       </c>
@@ -35396,7 +35395,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="619" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>206</v>
       </c>
@@ -35440,7 +35439,7 @@
         <v>-80.804151000000005</v>
       </c>
     </row>
-    <row r="620" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>604</v>
       </c>
@@ -35484,7 +35483,7 @@
         <v>-94.637888000000004</v>
       </c>
     </row>
-    <row r="621" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>306</v>
       </c>
@@ -35528,7 +35527,7 @@
         <v>-84.281629300000006</v>
       </c>
     </row>
-    <row r="622" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>317</v>
       </c>
@@ -35572,7 +35571,7 @@
         <v>-80.042788400000006</v>
       </c>
     </row>
-    <row r="623" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>229</v>
       </c>
@@ -35616,7 +35615,7 @@
         <v>-81.534229499999995</v>
       </c>
     </row>
-    <row r="624" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>269</v>
       </c>
@@ -35660,7 +35659,7 @@
         <v>-80.276522299999996</v>
       </c>
     </row>
-    <row r="625" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>648</v>
       </c>
@@ -35704,7 +35703,7 @@
         <v>-81.090896999999998</v>
       </c>
     </row>
-    <row r="626" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>365</v>
       </c>
@@ -35748,7 +35747,7 @@
         <v>-113.9858579</v>
       </c>
     </row>
-    <row r="627" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>486</v>
       </c>
@@ -35792,7 +35791,7 @@
         <v>-84.281720800000002</v>
       </c>
     </row>
-    <row r="628" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>191</v>
       </c>
@@ -35836,7 +35835,7 @@
         <v>-84.280293900000004</v>
       </c>
     </row>
-    <row r="629" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>294</v>
       </c>
@@ -35880,7 +35879,7 @@
         <v>-82.449543800000001</v>
       </c>
     </row>
-    <row r="630" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>451</v>
       </c>
@@ -35927,7 +35926,7 @@
         <v>-84.276303799999994</v>
       </c>
     </row>
-    <row r="631" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>246</v>
       </c>
@@ -35971,7 +35970,7 @@
         <v>-79.141653000000005</v>
       </c>
     </row>
-    <row r="632" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>199</v>
       </c>
@@ -36015,7 +36014,7 @@
         <v>-74.045357999999993</v>
       </c>
     </row>
-    <row r="633" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>647</v>
       </c>
@@ -36059,7 +36058,7 @@
         <v>-81.090896999999998</v>
       </c>
     </row>
-    <row r="634" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>633</v>
       </c>
@@ -36103,7 +36102,7 @@
         <v>-84.276828899999998</v>
       </c>
     </row>
-    <row r="635" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>432</v>
       </c>
@@ -36147,7 +36146,7 @@
         <v>-81.884362300000006</v>
       </c>
     </row>
-    <row r="636" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>223</v>
       </c>
@@ -36194,7 +36193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>304</v>
       </c>
@@ -36241,7 +36240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>330</v>
       </c>
@@ -36288,7 +36287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>267</v>
       </c>
@@ -36335,7 +36334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>222</v>
       </c>
@@ -36382,7 +36381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>274</v>
       </c>
@@ -36429,7 +36428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>362</v>
       </c>
@@ -36473,7 +36472,7 @@
         <v>-113.9858579</v>
       </c>
     </row>
-    <row r="643" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>388</v>
       </c>
@@ -36520,7 +36519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>501</v>
       </c>
@@ -36567,7 +36566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>300</v>
       </c>
@@ -36614,7 +36613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>320</v>
       </c>
@@ -36661,7 +36660,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="647" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>355</v>
       </c>
@@ -36708,7 +36707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>571</v>
       </c>
@@ -36752,7 +36751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>573</v>
       </c>
@@ -36799,7 +36798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>399</v>
       </c>
@@ -36846,7 +36845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>254</v>
       </c>
@@ -36890,7 +36889,7 @@
         <v>-82.368333100000001</v>
       </c>
     </row>
-    <row r="652" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>187</v>
       </c>
@@ -36934,7 +36933,7 @@
         <v>-80.373568199999994</v>
       </c>
     </row>
-    <row r="653" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>184</v>
       </c>
@@ -36981,7 +36980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>185</v>
       </c>
@@ -37028,7 +37027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>601</v>
       </c>
@@ -37075,7 +37074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>208</v>
       </c>
@@ -37122,7 +37121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>253</v>
       </c>
@@ -37169,7 +37168,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="658" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>376</v>
       </c>
@@ -37216,7 +37215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>260</v>
       </c>
@@ -37263,7 +37262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>534</v>
       </c>
@@ -37310,7 +37309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>447</v>
       </c>
@@ -37357,7 +37356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>397</v>
       </c>
@@ -37404,7 +37403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>535</v>
       </c>
@@ -37451,7 +37450,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="664" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>429</v>
       </c>
@@ -37498,7 +37497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>430</v>
       </c>
@@ -37548,7 +37547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>668</v>
       </c>
@@ -37595,7 +37594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>315</v>
       </c>
@@ -37642,7 +37641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>215</v>
       </c>
@@ -37689,7 +37688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>216</v>
       </c>
@@ -37736,7 +37735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>281</v>
       </c>
@@ -37783,7 +37782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>282</v>
       </c>
@@ -37830,7 +37829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>423</v>
       </c>
@@ -37877,7 +37876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>546</v>
       </c>
@@ -37924,7 +37923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>551</v>
       </c>
@@ -37971,7 +37970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>271</v>
       </c>
@@ -38018,7 +38017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>507</v>
       </c>
@@ -38065,7 +38064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>608</v>
       </c>
@@ -38112,7 +38111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>224</v>
       </c>
@@ -38159,49 +38158,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E680">
-        <f>E2+E8+E11+E20+E32+E59+E65+E66+E68+E69+E70+E71+E87+E89+E90+E106+E110+E134+E135</f>
-        <v>262500</v>
-      </c>
-    </row>
-    <row r="681" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E681">
-        <f>E680-E106-E110-E134-E135</f>
-        <v>240500</v>
-      </c>
-    </row>
-    <row r="684" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E684">
-        <f>E32+E59+E65+E66</f>
-        <v>180000</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:T678">
-    <filterColumn colId="3">
-      <filters>
-        <dateGroupItem year="2017" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Chaired by Ray Rodrigues; also associated with Travis Cummings and Manny Diaz"/>
-        <filter val="Rep. Chris Sprowl's PAC"/>
-        <filter val="Rep. Dane Eagle's PAC"/>
-        <filter val="Rep. Halsey Beshears is the manager of this group"/>
-        <filter val="Rep. Jason Brodeur's PAC"/>
-        <filter val="Rep. Jay Trumbull's PAC"/>
-        <filter val="Rep. Jeanette Nunez PAC"/>
-        <filter val="Rep. Jim Boyd's PAC"/>
-        <filter val="Rep. Jose Felix Diaz's PAC"/>
-        <filter val="Rep. Jose Oliva PAC"/>
-        <filter val="Rep. Manny Diaz JR PAC"/>
-        <filter val="Rep. Travis Cummings PAC"/>
-        <filter val="Sen. Jeff Brandes Pac"/>
-        <filter val="Was chaired by Sen. Frank Artiles"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:T135">
       <sortCondition ref="G1:G678"/>
     </sortState>

--- a/static/AG_money/caldwell_consolidates_base/pac_contrib_aug_15_17_geo.xlsx
+++ b/static/AG_money/caldwell_consolidates_base/pac_contrib_aug_15_17_geo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="8520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="totals" sheetId="4" r:id="rId1"/>
@@ -7234,7 +7234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -7349,7 +7349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U678"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
